--- a/biology/Botanique/Liste_d'espèces_d'algues_dont_le_génome_est_séquencé/Liste_d'espèces_d'algues_dont_le_génome_est_séquencé.xlsx
+++ b/biology/Botanique/Liste_d'espèces_d'algues_dont_le_génome_est_séquencé/Liste_d'espèces_d'algues_dont_le_génome_est_séquencé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%27algues_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_d'algues_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des génomes d’algues séquencés présentée ci-après répertorie toutes les espèces d’algues dont le séquençage  du génome complet est disponible publiquement. Les ébauches de génomes ne sont pas inclus dans la liste, ni le séquençage d'organites exclusivement.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%27algues_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_d'algues_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Glaucophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cyanophora paradoxa (2012[1])</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cyanophora paradoxa (2012)</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%27algues_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_d'algues_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,19 +555,21 @@
           <t>Algues vertes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bathycoccus prasinos BBAN7, Joint Genome Institute
-Chlamydomonas reinhardtii CC-503 cw92 mt+, organisme modèle, (2007[2])
-Chlorella variabilis NC64A, algue verte (2010[3])
-Coccomyxa subellipsoidea sp. C-169, possible source de biocarburant (2007[4])
+Chlamydomonas reinhardtii CC-503 cw92 mt+, organisme modèle, (2007)
+Chlorella variabilis NC64A, algue verte (2010)
+Coccomyxa subellipsoidea sp. C-169, possible source de biocarburant (2007)
 Dunaliella salina CCAP19/18, Joint Genome Institute
-Micromonas pusilla CCMP1545, phytoplancton marin (2007[5],[6])
-Micromonas pusilla RCC299/NOUM17, phytoplancton marin (2007[7],[6])
-Ostreococcus lucimarinus CCE9901, eucaryote simple, petit génome (2007[8])
-Ostreococcus tauri OTH95, eucaryote simple, petit génome (2006[9])
+Micromonas pusilla CCMP1545, phytoplancton marin (2007,)
+Micromonas pusilla RCC299/NOUM17, phytoplancton marin (2007,)
+Ostreococcus lucimarinus CCE9901, eucaryote simple, petit génome (2007)
+Ostreococcus tauri OTH95, eucaryote simple, petit génome (2006)
 Ostreococcus sp. RCC809, Joint Genome Institute
-Volvox carteri, algue multicellulaire, organisme modèle (2010[10])</t>
+Volvox carteri, algue multicellulaire, organisme modèle (2010)</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%27algues_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_d'algues_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +597,15 @@
           <t>Algues rouges</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chondrus crispus Genoscope
-Cyanidioschyzon merolae Strain:10D, eucaryote simple (2004[11])
-Galdieria sulphuraria [12]
-Pyropia yezoensis, Bangiophyceae[13]
-Porphyridium purpureum, Porphyridiophyceae[14]</t>
+Cyanidioschyzon merolae Strain:10D, eucaryote simple (2004)
+Galdieria sulphuraria 
+Pyropia yezoensis, Bangiophyceae
+Porphyridium purpureum, Porphyridiophyceae</t>
         </is>
       </c>
     </row>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%27algues_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_d'algues_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Algues brunes (Phaeophyceae)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ectocarpus siliculosus, parent éloigné des plantes (2010[15])</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ectocarpus siliculosus, parent éloigné des plantes (2010)</t>
         </is>
       </c>
     </row>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%27algues_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_d'algues_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Heterokontophyta</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aureococcus anophagefferens CCMP1984 (Pelagophyceae)
 Chroomonas mesostigmatica CCMP1168 (Cryptophyta)
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%27algues_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_d'algues_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,7 +708,9 @@
           <t>Chlorarachniophytes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bigelowiella natans (Chlorarachniophyceae))</t>
         </is>
